--- a/data/out/wiki/women/uefa/eu/third_teams_eu_uefa_women.xlsx
+++ b/data/out/wiki/women/uefa/eu/third_teams_eu_uefa_women.xlsx
@@ -461,10 +461,8 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(2009,)</t>
-        </is>
+      <c r="B2" t="n">
+        <v>2009</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
@@ -479,10 +477,8 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>(2009,)</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2009</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
@@ -497,10 +493,8 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(2009,)</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2009</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
@@ -515,10 +509,8 @@
           <t>France</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>(2009,)</t>
-        </is>
+      <c r="B5" t="n">
+        <v>2009</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -533,10 +525,8 @@
           <t>England</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>(2009,)</t>
-        </is>
+      <c r="B6" t="n">
+        <v>2009</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -551,10 +541,8 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>(2013,)</t>
-        </is>
+      <c r="B7" t="n">
+        <v>2013</v>
       </c>
       <c r="C7" t="n">
         <v>9</v>
@@ -569,10 +557,8 @@
           <t>Iceland</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>(2013,)</t>
-        </is>
+      <c r="B8" t="n">
+        <v>2013</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
@@ -587,10 +573,8 @@
           <t>England</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>(2013,)</t>
-        </is>
+      <c r="B9" t="n">
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
         <v>9</v>
@@ -605,10 +589,8 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>(2013,)</t>
-        </is>
+      <c r="B10" t="n">
+        <v>2013</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -623,10 +605,8 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>(2013,)</t>
-        </is>
+      <c r="B11" t="n">
+        <v>2013</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
@@ -641,10 +621,8 @@
           <t>Russia</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>(2013,)</t>
-        </is>
+      <c r="B12" t="n">
+        <v>2013</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>

--- a/data/out/wiki/women/uefa/eu/third_teams_eu_uefa_women.xlsx
+++ b/data/out/wiki/women/uefa/eu/third_teams_eu_uefa_women.xlsx
@@ -554,17 +554,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>2013</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -602,17 +602,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2013</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
